--- a/自用/809战必断金站位.xlsx
+++ b/自用/809战必断金站位.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9144" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="347">
   <si>
     <t>魏国</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +832,518 @@
   </si>
   <si>
     <t>太监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贾诩</t>
+  </si>
+  <si>
+    <t>不攻</t>
+  </si>
+  <si>
+    <t>十面</t>
+  </si>
+  <si>
+    <t>甄洛</t>
+  </si>
+  <si>
+    <t>反计</t>
+  </si>
+  <si>
+    <t>磐阵</t>
+  </si>
+  <si>
+    <t>鬼吕</t>
+  </si>
+  <si>
+    <t>回马</t>
+  </si>
+  <si>
+    <t>猎敌之锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小郭</t>
+  </si>
+  <si>
+    <t>衡轭</t>
+  </si>
+  <si>
+    <t>避其</t>
+  </si>
+  <si>
+    <t>甘宁</t>
+  </si>
+  <si>
+    <t>先驱</t>
+  </si>
+  <si>
+    <t>温酒</t>
+  </si>
+  <si>
+    <t>祝融</t>
+  </si>
+  <si>
+    <t>擅兵</t>
+  </si>
+  <si>
+    <t>庞统</t>
+  </si>
+  <si>
+    <t>伐谋</t>
+  </si>
+  <si>
+    <t>步诸葛</t>
+  </si>
+  <si>
+    <t>安抚</t>
+  </si>
+  <si>
+    <t>绝水</t>
+  </si>
+  <si>
+    <t>徐庶</t>
+  </si>
+  <si>
+    <t>疾战</t>
+  </si>
+  <si>
+    <t>攻心</t>
+  </si>
+  <si>
+    <t>关妹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群貂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘备</t>
+  </si>
+  <si>
+    <t>刘备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避其</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重整</t>
+  </si>
+  <si>
+    <t>重整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步步/凤仪亭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>步步/凤仪亭/反间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雄兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折戟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关妹/赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓诸</t>
+  </si>
+  <si>
+    <t>安抚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河内</t>
+  </si>
+  <si>
+    <t>张角</t>
+  </si>
+  <si>
+    <t>反间</t>
+  </si>
+  <si>
+    <t>声东</t>
+  </si>
+  <si>
+    <t>安抚/步步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>郝昭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浑水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妖术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重整/反间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sp姜维</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>枪阵/大赏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疾风迅雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷破阵</t>
+  </si>
+  <si>
+    <t>惊雷破阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锋矢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>穷追</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断铁倾旗</t>
+  </si>
+  <si>
+    <t>断铁倾旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘虞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斩铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重骑兵反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群董</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车悬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>千里奔袭</t>
+  </si>
+  <si>
+    <t>千里奔袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁骑冲锋</t>
+  </si>
+  <si>
+    <t>铁骑冲锋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>惊雷破阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速战迎击</t>
+  </si>
+  <si>
+    <t>速战迎击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>断铁倾旗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>革甲众行</t>
+  </si>
+  <si>
+    <t>革甲众行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱矢蓄川</t>
+  </si>
+  <si>
+    <t>乱矢蓄川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伺机而动</t>
+  </si>
+  <si>
+    <t>伺机而动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安营固军</t>
+  </si>
+  <si>
+    <t>安营固军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>避实击虚</t>
+  </si>
+  <si>
+    <t>避实击虚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身减伤</t>
+  </si>
+  <si>
+    <t>自身减伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外伤害</t>
+  </si>
+  <si>
+    <t>额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大水危崖</t>
+  </si>
+  <si>
+    <t>大水危崖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离+1</t>
+  </si>
+  <si>
+    <t>距离+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>声东连环</t>
+  </si>
+  <si>
+    <t>声东连环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外增伤</t>
+  </si>
+  <si>
+    <t>斩铁破魂</t>
+  </si>
+  <si>
+    <t>斩铁破魂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>up</t>
+  </si>
+  <si>
+    <t>up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪击枪阵</t>
+  </si>
+  <si>
+    <t>闪击枪阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>距离目标+1</t>
+  </si>
+  <si>
+    <t>距离目标+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲锋车悬</t>
+  </si>
+  <si>
+    <t>冲锋车悬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落雷迷阵</t>
+  </si>
+  <si>
+    <t>落雷迷阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奔袭伐谋雀伏</t>
+  </si>
+  <si>
+    <t>奔袭伐谋雀伏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>箭岚火积</t>
+  </si>
+  <si>
+    <t>箭岚火积</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外增伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激昂up</t>
+  </si>
+  <si>
+    <t>激昂up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合众分险强化</t>
+  </si>
+  <si>
+    <t>合众分险强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度强化</t>
+  </si>
+  <si>
+    <t>速度强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>了如安抚</t>
+  </si>
+  <si>
+    <t>了如安抚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目标+1</t>
+  </si>
+  <si>
+    <t>目标+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>额外恢复</t>
+  </si>
+  <si>
+    <t>额外恢复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>措手长驱援军</t>
+  </si>
+  <si>
+    <t>措手长驱援军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回合+1</t>
+  </si>
+  <si>
+    <t>回合+1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击强化</t>
+  </si>
+  <si>
+    <t>攻击强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怯心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张角</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弓诸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群貂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战必</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>形兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>十面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -854,7 +1367,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,6 +1377,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,19 +1429,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1197,33 +1728,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J24"/>
+  <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="L1" sqref="L1:P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="L1" t="s">
+        <v>273</v>
+      </c>
+      <c r="M1" t="s">
+        <v>314</v>
+      </c>
+      <c r="N1" t="s">
+        <v>304</v>
+      </c>
+      <c r="O1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
@@ -1247,9 +1794,21 @@
       <c r="J2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
+      <c r="L2" t="s">
+        <v>275</v>
+      </c>
+      <c r="M2" t="s">
+        <v>310</v>
+      </c>
+      <c r="N2" t="s">
+        <v>304</v>
+      </c>
+      <c r="O2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
@@ -1262,21 +1821,57 @@
       <c r="J3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="5"/>
+      <c r="L3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M3" t="s">
+        <v>312</v>
+      </c>
+      <c r="N3" t="s">
+        <v>304</v>
+      </c>
+      <c r="O3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="12"/>
       <c r="J4" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="5"/>
+      <c r="L4" t="s">
+        <v>278</v>
+      </c>
+      <c r="M4" t="s">
+        <v>299</v>
+      </c>
+      <c r="N4" t="s">
+        <v>300</v>
+      </c>
+      <c r="O4" t="s">
+        <v>295</v>
+      </c>
+      <c r="P4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
       <c r="J5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="L5" t="s">
+        <v>279</v>
+      </c>
+      <c r="M5" t="s">
+        <v>302</v>
+      </c>
+      <c r="N5" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>1</v>
       </c>
       <c r="B6" t="s">
@@ -1300,9 +1895,21 @@
       <c r="J6" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
+      <c r="L6" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="M6" t="s">
+        <v>306</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="O6" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
       <c r="B7" t="s">
         <v>26</v>
       </c>
@@ -1315,9 +1922,18 @@
       <c r="J7" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
+      <c r="L7" t="s">
+        <v>283</v>
+      </c>
+      <c r="M7" t="s">
+        <v>316</v>
+      </c>
+      <c r="N7" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
       <c r="B8" t="s">
         <v>27</v>
       </c>
@@ -1327,21 +1943,57 @@
       <c r="H8" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="L8" t="s">
+        <v>285</v>
+      </c>
+      <c r="M8" t="s">
+        <v>319</v>
+      </c>
+      <c r="N8" t="s">
+        <v>321</v>
+      </c>
+      <c r="O8" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
+      <c r="L9" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" t="s">
+        <v>325</v>
+      </c>
+      <c r="N9" t="s">
+        <v>327</v>
+      </c>
+      <c r="O9" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="12"/>
       <c r="B10" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="L10" t="s">
+        <v>289</v>
+      </c>
+      <c r="M10" t="s">
+        <v>331</v>
+      </c>
+      <c r="N10" t="s">
+        <v>333</v>
+      </c>
+      <c r="O10" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>2</v>
       </c>
       <c r="B11" t="s">
@@ -1369,8 +2021,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="12"/>
       <c r="B12" s="1" t="s">
         <v>40</v>
       </c>
@@ -1381,20 +2033,20 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="12"/>
       <c r="J13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="12"/>
       <c r="J14" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B15" s="1" t="s">
@@ -1416,8 +2068,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="12"/>
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
@@ -1435,7 +2087,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
+      <c r="A17" s="12"/>
       <c r="B17" s="1" t="s">
         <v>58</v>
       </c>
@@ -1450,7 +2102,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="A18" s="12"/>
       <c r="B18" s="1" t="s">
         <v>59</v>
       </c>
@@ -1465,7 +2117,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="5"/>
+      <c r="A19" s="12"/>
       <c r="B19" t="s">
         <v>61</v>
       </c>
@@ -1477,13 +2129,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="5"/>
+      <c r="A20" s="12"/>
       <c r="B20" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="12" t="s">
         <v>4</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1503,7 +2155,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="5"/>
+      <c r="A22" s="12"/>
       <c r="B22" t="s">
         <v>73</v>
       </c>
@@ -1512,10 +2164,10 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="5"/>
+      <c r="A23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="5"/>
+      <c r="A24" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1537,8 +2189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1571,13 +2223,13 @@
       <c r="K1" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="4" t="s">
         <v>183</v>
       </c>
     </row>
@@ -1609,7 +2261,7 @@
       <c r="K2" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="4" t="s">
         <v>200</v>
       </c>
     </row>
@@ -1641,7 +2293,7 @@
       <c r="K3" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>188</v>
       </c>
     </row>
@@ -1676,7 +2328,7 @@
       <c r="K5" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="7" t="s">
+      <c r="M5" s="5" t="s">
         <v>184</v>
       </c>
     </row>
@@ -1711,7 +2363,7 @@
       <c r="K6" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="M6" s="7" t="s">
+      <c r="M6" s="5" t="s">
         <v>185</v>
       </c>
     </row>
@@ -1746,7 +2398,7 @@
       <c r="K7" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="5" t="s">
         <v>186</v>
       </c>
     </row>
@@ -1763,7 +2415,7 @@
       <c r="D9" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="6" t="s">
+      <c r="M9" s="4" t="s">
         <v>202</v>
       </c>
     </row>
@@ -1777,7 +2429,7 @@
       <c r="C10" t="s">
         <v>117</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="4" t="s">
         <v>201</v>
       </c>
     </row>
@@ -1791,7 +2443,7 @@
       <c r="C11" t="s">
         <v>118</v>
       </c>
-      <c r="M11" s="6" t="s">
+      <c r="M11" s="4" t="s">
         <v>187</v>
       </c>
     </row>
@@ -1805,16 +2457,7 @@
       <c r="C13" t="s">
         <v>128</v>
       </c>
-      <c r="E13" t="s">
-        <v>149</v>
-      </c>
-      <c r="F13" t="s">
-        <v>150</v>
-      </c>
-      <c r="G13" t="s">
-        <v>151</v>
-      </c>
-      <c r="M13" s="6" t="s">
+      <c r="M13" s="4" t="s">
         <v>189</v>
       </c>
     </row>
@@ -1828,16 +2471,7 @@
       <c r="C14" t="s">
         <v>125</v>
       </c>
-      <c r="E14" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" t="s">
-        <v>163</v>
-      </c>
-      <c r="G14" t="s">
-        <v>154</v>
-      </c>
-      <c r="M14" s="6" t="s">
+      <c r="M14" s="4" t="s">
         <v>190</v>
       </c>
     </row>
@@ -1851,16 +2485,7 @@
       <c r="C15" t="s">
         <v>123</v>
       </c>
-      <c r="E15" t="s">
-        <v>162</v>
-      </c>
-      <c r="F15" t="s">
-        <v>122</v>
-      </c>
-      <c r="G15" t="s">
-        <v>164</v>
-      </c>
-      <c r="M15" s="6" t="s">
+      <c r="M15" s="4" t="s">
         <v>191</v>
       </c>
     </row>
@@ -1886,7 +2511,7 @@
       <c r="G17" t="s">
         <v>169</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="4" t="s">
         <v>192</v>
       </c>
     </row>
@@ -1906,7 +2531,7 @@
       <c r="E18" t="s">
         <v>171</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="4" t="s">
         <v>193</v>
       </c>
     </row>
@@ -1926,7 +2551,7 @@
       <c r="F19" t="s">
         <v>172</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="4" t="s">
         <v>194</v>
       </c>
     </row>
@@ -1952,7 +2577,7 @@
       <c r="G21" t="s">
         <v>103</v>
       </c>
-      <c r="M21" s="6" t="s">
+      <c r="M21" s="4" t="s">
         <v>195</v>
       </c>
     </row>
@@ -1975,7 +2600,7 @@
       <c r="G22" t="s">
         <v>93</v>
       </c>
-      <c r="M22" s="6" t="s">
+      <c r="M22" s="4" t="s">
         <v>196</v>
       </c>
       <c r="N22" t="s">
@@ -2007,7 +2632,7 @@
       <c r="G23" t="s">
         <v>102</v>
       </c>
-      <c r="M23" s="6" t="s">
+      <c r="M23" s="4" t="s">
         <v>197</v>
       </c>
     </row>
@@ -2074,5 +2699,749 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:Q35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="L1" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>340</v>
+      </c>
+      <c r="K7" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>219</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>220</v>
+      </c>
+      <c r="C13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D13" t="s">
+        <v>221</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="M13" t="s">
+        <v>272</v>
+      </c>
+      <c r="N13" t="s">
+        <v>313</v>
+      </c>
+      <c r="O13" t="s">
+        <v>303</v>
+      </c>
+      <c r="P13" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C14" t="s">
+        <v>223</v>
+      </c>
+      <c r="D14" t="s">
+        <v>224</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" t="s">
+        <v>274</v>
+      </c>
+      <c r="N14" t="s">
+        <v>309</v>
+      </c>
+      <c r="O14" t="s">
+        <v>303</v>
+      </c>
+      <c r="P14" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>225</v>
+      </c>
+      <c r="C15" t="s">
+        <v>226</v>
+      </c>
+      <c r="D15" t="s">
+        <v>227</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="M15" t="s">
+        <v>258</v>
+      </c>
+      <c r="N15" t="s">
+        <v>311</v>
+      </c>
+      <c r="O15" t="s">
+        <v>303</v>
+      </c>
+      <c r="P15" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>277</v>
+      </c>
+      <c r="N16" t="s">
+        <v>298</v>
+      </c>
+      <c r="O16" t="s">
+        <v>300</v>
+      </c>
+      <c r="P16" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="M17" t="s">
+        <v>262</v>
+      </c>
+      <c r="N17" t="s">
+        <v>301</v>
+      </c>
+      <c r="O17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B18" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="M18" t="s">
+        <v>280</v>
+      </c>
+      <c r="N18" t="s">
+        <v>305</v>
+      </c>
+      <c r="O18" t="s">
+        <v>307</v>
+      </c>
+      <c r="P18" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B19" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M19" t="s">
+        <v>282</v>
+      </c>
+      <c r="N19" t="s">
+        <v>315</v>
+      </c>
+      <c r="O19" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>284</v>
+      </c>
+      <c r="N20" t="s">
+        <v>318</v>
+      </c>
+      <c r="O20" t="s">
+        <v>320</v>
+      </c>
+      <c r="P20" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>246</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21">
+        <v>2.5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>286</v>
+      </c>
+      <c r="N21" t="s">
+        <v>324</v>
+      </c>
+      <c r="O21" t="s">
+        <v>326</v>
+      </c>
+      <c r="P21" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="L22">
+        <v>1.5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>288</v>
+      </c>
+      <c r="N22" t="s">
+        <v>330</v>
+      </c>
+      <c r="O22" t="s">
+        <v>332</v>
+      </c>
+      <c r="P22" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="I23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F25" t="s">
+        <v>39</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>257</v>
+      </c>
+      <c r="K25" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" t="s">
+        <v>337</v>
+      </c>
+      <c r="H27" t="s">
+        <v>91</v>
+      </c>
+      <c r="I27" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F29" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G29" t="s">
+        <v>108</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
+      </c>
+      <c r="I29" t="s">
+        <v>264</v>
+      </c>
+      <c r="J29" t="s">
+        <v>263</v>
+      </c>
+      <c r="K29" t="s">
+        <v>267</v>
+      </c>
+      <c r="L29" t="s">
+        <v>268</v>
+      </c>
+      <c r="M29" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F30" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G30" t="s">
+        <v>143</v>
+      </c>
+      <c r="H30" t="s">
+        <v>256</v>
+      </c>
+      <c r="I30" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" t="s">
+        <v>265</v>
+      </c>
+      <c r="K30" t="s">
+        <v>266</v>
+      </c>
+      <c r="L30" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="F31" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="G31" t="s">
+        <v>115</v>
+      </c>
+      <c r="H31" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" t="s">
+        <v>18</v>
+      </c>
+      <c r="J31" t="s">
+        <v>265</v>
+      </c>
+      <c r="K31" t="s">
+        <v>266</v>
+      </c>
+      <c r="L31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="33" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>56</v>
+      </c>
+      <c r="J33" t="s">
+        <v>271</v>
+      </c>
+      <c r="K33" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="34" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35" spans="9:11" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>269</v>
+      </c>
+      <c r="J35" t="s">
+        <v>270</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>